--- a/df_list_20250121.xlsx
+++ b/df_list_20250121.xlsx
@@ -1033,7 +1033,8 @@
   <cols>
     <col customWidth="1" min="1" max="4" width="8.71"/>
     <col customWidth="1" min="5" max="5" width="18.0"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="36.71"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1073,7 +1074,7 @@
         <v>45677.0</v>
       </c>
       <c r="F2" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="3">
@@ -1093,7 +1094,7 @@
         <v>45677.0</v>
       </c>
       <c r="F3" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="4">
@@ -1113,7 +1114,7 @@
         <v>45678.0</v>
       </c>
       <c r="F4" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="5">
@@ -1133,7 +1134,7 @@
         <v>45677.0</v>
       </c>
       <c r="F5" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="6">
@@ -1153,7 +1154,7 @@
         <v>45678.0</v>
       </c>
       <c r="F6" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="7">
@@ -1173,7 +1174,7 @@
         <v>45677.0</v>
       </c>
       <c r="F7" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="8">
@@ -1193,7 +1194,7 @@
         <v>45677.0</v>
       </c>
       <c r="F8" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="9">
@@ -1213,7 +1214,7 @@
         <v>45677.0</v>
       </c>
       <c r="F9" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="10">
@@ -1233,7 +1234,7 @@
         <v>45677.0</v>
       </c>
       <c r="F10" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="11">
@@ -1253,7 +1254,7 @@
         <v>45677.0</v>
       </c>
       <c r="F11" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="12">
@@ -1273,7 +1274,7 @@
         <v>45677.0</v>
       </c>
       <c r="F12" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="13">
@@ -1293,7 +1294,7 @@
         <v>45678.0</v>
       </c>
       <c r="F13" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1314,7 @@
         <v>45677.0</v>
       </c>
       <c r="F14" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="15">
@@ -1333,7 +1334,7 @@
         <v>45677.0</v>
       </c>
       <c r="F15" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="16">
@@ -1353,7 +1354,7 @@
         <v>45677.0</v>
       </c>
       <c r="F16" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="17">
@@ -1373,7 +1374,7 @@
         <v>45678.0</v>
       </c>
       <c r="F17" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="18">
@@ -1393,7 +1394,7 @@
         <v>45677.0</v>
       </c>
       <c r="F18" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="19">
@@ -1413,7 +1414,7 @@
         <v>45678.0</v>
       </c>
       <c r="F19" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="20">
@@ -1433,7 +1434,7 @@
         <v>45677.0</v>
       </c>
       <c r="F20" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1453,7 +1454,7 @@
         <v>45677.0</v>
       </c>
       <c r="F21" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1473,7 +1474,7 @@
         <v>45677.0</v>
       </c>
       <c r="F22" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1493,7 +1494,7 @@
         <v>45677.0</v>
       </c>
       <c r="F23" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1513,7 +1514,7 @@
         <v>45677.0</v>
       </c>
       <c r="F24" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -1533,7 +1534,7 @@
         <v>45677.0</v>
       </c>
       <c r="F25" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1553,7 +1554,7 @@
         <v>45678.0</v>
       </c>
       <c r="F26" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1573,7 +1574,7 @@
         <v>45677.0</v>
       </c>
       <c r="F27" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1593,7 +1594,7 @@
         <v>45678.0</v>
       </c>
       <c r="F28" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -1613,7 +1614,7 @@
         <v>45677.0</v>
       </c>
       <c r="F29" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -1633,7 +1634,7 @@
         <v>45678.0</v>
       </c>
       <c r="F30" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1653,7 +1654,7 @@
         <v>45677.0</v>
       </c>
       <c r="F31" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1673,7 +1674,7 @@
         <v>45677.0</v>
       </c>
       <c r="F32" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -1693,7 +1694,7 @@
         <v>45678.0</v>
       </c>
       <c r="F33" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1713,7 +1714,7 @@
         <v>45677.0</v>
       </c>
       <c r="F34" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -1733,7 +1734,7 @@
         <v>45678.0</v>
       </c>
       <c r="F35" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -1753,7 +1754,7 @@
         <v>45677.0</v>
       </c>
       <c r="F36" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -1773,7 +1774,7 @@
         <v>45677.0</v>
       </c>
       <c r="F37" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -1793,7 +1794,7 @@
         <v>45677.0</v>
       </c>
       <c r="F38" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -1813,7 +1814,7 @@
         <v>45677.0</v>
       </c>
       <c r="F39" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -1833,7 +1834,7 @@
         <v>45677.0</v>
       </c>
       <c r="F40" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -1853,7 +1854,7 @@
         <v>45677.0</v>
       </c>
       <c r="F41" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -1873,7 +1874,7 @@
         <v>45677.0</v>
       </c>
       <c r="F42" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -1893,7 +1894,7 @@
         <v>45678.0</v>
       </c>
       <c r="F43" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -1913,7 +1914,7 @@
         <v>45678.0</v>
       </c>
       <c r="F44" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -1933,7 +1934,7 @@
         <v>45678.0</v>
       </c>
       <c r="F45" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -1953,7 +1954,7 @@
         <v>45677.0</v>
       </c>
       <c r="F46" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -1973,7 +1974,7 @@
         <v>45677.0</v>
       </c>
       <c r="F47" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -1993,7 +1994,7 @@
         <v>45678.0</v>
       </c>
       <c r="F48" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -2013,7 +2014,7 @@
         <v>45678.0</v>
       </c>
       <c r="F49" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -2033,7 +2034,7 @@
         <v>45677.0</v>
       </c>
       <c r="F50" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -2053,7 +2054,7 @@
         <v>45678.0</v>
       </c>
       <c r="F51" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -2073,7 +2074,7 @@
         <v>45677.0</v>
       </c>
       <c r="F52" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -2093,7 +2094,7 @@
         <v>45677.0</v>
       </c>
       <c r="F53" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -2113,7 +2114,7 @@
         <v>45677.0</v>
       </c>
       <c r="F54" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -2133,7 +2134,7 @@
         <v>45678.0</v>
       </c>
       <c r="F55" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -2153,7 +2154,7 @@
         <v>45677.0</v>
       </c>
       <c r="F56" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -2173,7 +2174,7 @@
         <v>45678.0</v>
       </c>
       <c r="F57" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2193,7 +2194,7 @@
         <v>45677.0</v>
       </c>
       <c r="F58" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2213,7 +2214,7 @@
         <v>45677.0</v>
       </c>
       <c r="F59" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -2233,7 +2234,7 @@
         <v>45677.0</v>
       </c>
       <c r="F60" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -2253,7 +2254,7 @@
         <v>45677.0</v>
       </c>
       <c r="F61" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -2273,7 +2274,7 @@
         <v>45677.0</v>
       </c>
       <c r="F62" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -2293,7 +2294,7 @@
         <v>45677.0</v>
       </c>
       <c r="F63" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -2313,7 +2314,7 @@
         <v>45677.0</v>
       </c>
       <c r="F64" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -2333,7 +2334,7 @@
         <v>45677.0</v>
       </c>
       <c r="F65" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -2353,7 +2354,7 @@
         <v>45677.0</v>
       </c>
       <c r="F66" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -2373,7 +2374,7 @@
         <v>45677.0</v>
       </c>
       <c r="F67" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -2393,7 +2394,7 @@
         <v>45678.0</v>
       </c>
       <c r="F68" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -2413,7 +2414,7 @@
         <v>45678.0</v>
       </c>
       <c r="F69" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -2433,7 +2434,7 @@
         <v>45677.0</v>
       </c>
       <c r="F70" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -2453,7 +2454,7 @@
         <v>45677.0</v>
       </c>
       <c r="F71" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -2473,7 +2474,7 @@
         <v>45678.0</v>
       </c>
       <c r="F72" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -2493,7 +2494,7 @@
         <v>45677.0</v>
       </c>
       <c r="F73" s="4">
-        <v>45677.56619212963</v>
+        <v>45678.56619212963</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1"/>

--- a/df_list_20250121.xlsx
+++ b/df_list_20250121.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="337">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -742,16 +742,302 @@
   </si>
   <si>
     <t>용남 수도항 방파제 보강공사 공법 선정 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>대구광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+  </si>
+  <si>
+    <t>대구광역시 공무원교육원 교육훈련심의위원회 위원 공개모집</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>전라도_익산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
+  </si>
+  <si>
+    <t>익산 일자리통합 플랫폼 구축 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>「죽변항 청정해수공급시설 지원사업」 특정 공법(특허・신기술) 제안 재공고</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>2025년도 경북도민행복대학 칠곡군캠퍼스 운영 용역 제안서 평가위원 추천 공고</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>2025년 (예비)사회적기업 운영지원 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>국지도 82호선 우정~향남 도로확장공사 신기술특허 공법 선정위원회 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 부천시 유아숲체험원 교육운영 용역 제안서 평가위원 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=3</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=5</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>충청도_청주시_상당구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+  </si>
+  <si>
+    <t>SK하이닉스 신규공장 공업용수 공급사업(3단계) 특정공법(배수지 내부방수...</t>
+  </si>
+  <si>
+    <t>「각리근린공원 물놀이장 종합 놀이시설 제안 및 제작ㆍ설치」 제안서 평가위...</t>
+  </si>
+  <si>
+    <t>정중근린공원 물놀이장 종합 놀이시설 제안 및 제작 설치 제안서 평가위원(...</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=3</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>제안서평가위원회 구성을 위한 예비평가위원 모집 (생활폐기물 수집운반「2025년 동지역 등 가로청소 용역(1구역) 계약」)</t>
+  </si>
+  <si>
+    <t>2025 벚꽃과 함께하는 제3회 청주 푸드트럭축제 행사대행 용역 제안서 ...</t>
+  </si>
+  <si>
+    <t>솔밭공원 유아숲체험원 교육 운영 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>흥덕대교 보수보강공사 특정공법 심의위원 명단 및 정성적 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>『유호지구, 고봉지구, 금곡지구 마을하수도정비사업』 하수처리 공법선정을 위한 기술제안서 제출</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집 공고 『유호지구, 고봉지구, 금곡지구 마을하수도정비사업』  하수처리장 특허공법 선정</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>충남도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청남도 농촌공간정책심의회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>남산1호터널 외 2개소 보수공사 외 3건 특정공법 (교면방수,단면보수,내오염도장) 선정 최종평가 결과공고</t>
+  </si>
+  <si>
+    <t>『영동대교 보수공사 외 1건』 신기술·특허공법 제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>「신천처리구역(중동교~냉천교) 오수간선관로 설치공사 흙막이 가시설 공법」기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>인천광역시종합건설본부</t>
+  </si>
+  <si>
+    <t>https://www.incheon.go.kr/jonggeon/JO020101</t>
+  </si>
+  <si>
+    <t>2025년 신기술 특허공법 제안서 정량평가 결과 및 위원회 개최 일정</t>
+  </si>
+  <si>
+    <t>2025년 제1차 경기도보육정책위원회 심의의결사항 공고</t>
+  </si>
+  <si>
+    <t>A028</t>
+  </si>
+  <si>
+    <t>충남고시공고</t>
+  </si>
+  <si>
+    <t>「과천시 중앙로(하행) 저소음배수성 포장공사」 공법선정위원회 평가위원 명단 및 평가결과 공개</t>
+  </si>
+  <si>
+    <t>A044</t>
+  </si>
+  <si>
+    <t>경기도_광주시</t>
+  </si>
+  <si>
+    <t>https://www.gjcity.go.kr/portal/saeol/gosi/list.do?mId=0202010000&amp;token=1688448678130</t>
+  </si>
+  <si>
+    <t>자재(공법) 선정결과 공고[국도45호선(태전동) 저소음포장사업]새 글</t>
+  </si>
+  <si>
+    <t>https://www.guri.go.kr/www/selectGosiNttList.do?key=387&amp;searchGosiSe=01,04,06&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.ansan.go.kr/www/common/bbs/selectPageListBbs.do?bbs_code=WWW13&amp;currentPage=2</t>
+  </si>
+  <si>
+    <t>「2025 영랑호 벚꽃축제」행사대행용역 제안서 평가위원(후보자) 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 5급 승진후보자 역량평가교육 운영 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>[양구군 공고 제2025-107호] 주민참여형 농업비점오염 집중관리사업 4차년도 민간위탁용역 제안서 평가위        ...</t>
+  </si>
+  <si>
+    <t>2025 벚꽃과 함께하는 제3회 청주 푸드트럭축제 행사대행 용역 제안서 평가위원(후보자)모집 공고</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>충청도_천안시</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
+  </si>
+  <si>
+    <t>제안서평가위원 모집공고(천안시 지능형교통체계(ITS) 기본계획 수립 용역...</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=2</t>
+  </si>
+  <si>
+    <t>A141</t>
+  </si>
+  <si>
+    <t>전라도_강진군</t>
+  </si>
+  <si>
+    <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
+  </si>
+  <si>
+    <t>『강진 분홍나루 노을전시관』  민간위탁 제안공모 사업제안서 평가..새로운글</t>
+  </si>
+  <si>
+    <t>A149</t>
+  </si>
+  <si>
+    <t>전라도_영광군</t>
+  </si>
+  <si>
+    <t>https://www.yeonggwang.go.kr/bbs/?b_id=gosigonggo&amp;site=headquarter_new&amp;mn=9059&amp;offset=0</t>
+  </si>
+  <si>
+    <t>2024년 제6회 영광군 건축위원회(소위원회) 심의결과 공고</t>
+  </si>
+  <si>
+    <t>『신지 독고재 등산로 연결다리 조성사업』 신기술·특허공법 선정 기술제안서...새로운글</t>
+  </si>
+  <si>
+    <t>A152</t>
+  </si>
+  <si>
+    <t>전라도_장성군</t>
+  </si>
+  <si>
+    <t>https://www.jangseong.go.kr/home/www/news/jangseong/announcement?page=1</t>
+  </si>
+  <si>
+    <t>2025년 문불여장성」소식지 제작 용역 제안서 평가위원(후...</t>
+  </si>
+  <si>
+    <t>2025년 의성군 드론 실증도시 구축사업 제안서 평가위...</t>
+  </si>
+  <si>
+    <t>https://www.usc.go.kr/ko/page.do?mnu_uid=157&amp;pageNo=2</t>
+  </si>
+  <si>
+    <t>A187</t>
+  </si>
+  <si>
+    <t>경상도_김해시</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>클레이아크김해미술관 미디어아트 구축 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.sacheon.go.kr/news/00009/00014.web?cpage=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -773,6 +1059,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -803,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -813,6 +1103,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2497,152 +2796,2926 @@
         <v>45678.56619212963</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F102" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F104" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F122" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F126" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F127" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F128" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F129" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F130" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F131" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F132" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45679.0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45679.0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F143" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F145" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F146" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F147" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F148" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F149" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F150" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F151" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F152" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F153" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F156" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F158" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E160" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F160" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F161" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F162" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F163" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E164" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F164" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F165" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F166" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E167" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F167" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F168" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E169" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F169" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E170" s="7">
+        <v>45679.0</v>
+      </c>
+      <c r="F170" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F171" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E172" s="7">
+        <v>45679.0</v>
+      </c>
+      <c r="F172" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E173" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F173" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E174" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F174" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E175" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F175" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E176" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F176" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E177" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F177" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E178" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F178" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E179" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F179" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F180" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F181" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F182" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F183" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F184" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F185" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F186" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F187" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45679.0</v>
+      </c>
+      <c r="F188" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45679.0</v>
+      </c>
+      <c r="F189" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F190" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F191" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F192" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F193" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F194" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F195" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F196" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45679.0</v>
+      </c>
+      <c r="F197" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F198" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F199" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F200" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E201" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F201" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F202" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E203" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F203" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E204" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F205" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E206" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F206" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E207" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F207" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E208" s="7">
+        <v>45679.0</v>
+      </c>
+      <c r="F208" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F209" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F210" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F211" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F212" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E213" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F213" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E214" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F214" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E215" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F215" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F216" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F217" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45678.0</v>
+      </c>
+      <c r="F218" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E219" s="7">
+        <v>45677.0</v>
+      </c>
+      <c r="F219" s="7">
+        <v>45679.00493055556</v>
+      </c>
+    </row>
     <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -3425,9 +6498,157 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C74"/>
+    <hyperlink r:id="rId2" ref="C75"/>
+    <hyperlink r:id="rId3" ref="C76"/>
+    <hyperlink r:id="rId4" ref="C77"/>
+    <hyperlink r:id="rId5" ref="C78"/>
+    <hyperlink r:id="rId6" ref="C79"/>
+    <hyperlink r:id="rId7" location="list/1" ref="C80"/>
+    <hyperlink r:id="rId8" ref="C81"/>
+    <hyperlink r:id="rId9" ref="C82"/>
+    <hyperlink r:id="rId10" ref="C83"/>
+    <hyperlink r:id="rId11" ref="C84"/>
+    <hyperlink r:id="rId12" ref="C85"/>
+    <hyperlink r:id="rId13" ref="C86"/>
+    <hyperlink r:id="rId14" ref="C87"/>
+    <hyperlink r:id="rId15" ref="C88"/>
+    <hyperlink r:id="rId16" ref="C89"/>
+    <hyperlink r:id="rId17" location="page=2" ref="C90"/>
+    <hyperlink r:id="rId18" location="page=2" ref="C91"/>
+    <hyperlink r:id="rId19" ref="C92"/>
+    <hyperlink r:id="rId20" ref="C93"/>
+    <hyperlink r:id="rId21" ref="C94"/>
+    <hyperlink r:id="rId22" ref="C95"/>
+    <hyperlink r:id="rId23" ref="C96"/>
+    <hyperlink r:id="rId24" ref="C97"/>
+    <hyperlink r:id="rId25" ref="C98"/>
+    <hyperlink r:id="rId26" ref="C99"/>
+    <hyperlink r:id="rId27" ref="C100"/>
+    <hyperlink r:id="rId28" ref="C101"/>
+    <hyperlink r:id="rId29" ref="C102"/>
+    <hyperlink r:id="rId30" ref="C103"/>
+    <hyperlink r:id="rId31" ref="C104"/>
+    <hyperlink r:id="rId32" ref="C105"/>
+    <hyperlink r:id="rId33" ref="C106"/>
+    <hyperlink r:id="rId34" ref="C107"/>
+    <hyperlink r:id="rId35" ref="C108"/>
+    <hyperlink r:id="rId36" ref="C109"/>
+    <hyperlink r:id="rId37" ref="C110"/>
+    <hyperlink r:id="rId38" ref="C111"/>
+    <hyperlink r:id="rId39" ref="C112"/>
+    <hyperlink r:id="rId40" ref="C113"/>
+    <hyperlink r:id="rId41" ref="C114"/>
+    <hyperlink r:id="rId42" ref="C115"/>
+    <hyperlink r:id="rId43" ref="C116"/>
+    <hyperlink r:id="rId44" ref="C117"/>
+    <hyperlink r:id="rId45" ref="C118"/>
+    <hyperlink r:id="rId46" ref="C119"/>
+    <hyperlink r:id="rId47" ref="C120"/>
+    <hyperlink r:id="rId48" ref="C121"/>
+    <hyperlink r:id="rId49" ref="C122"/>
+    <hyperlink r:id="rId50" ref="C123"/>
+    <hyperlink r:id="rId51" ref="C124"/>
+    <hyperlink r:id="rId52" ref="C125"/>
+    <hyperlink r:id="rId53" ref="C126"/>
+    <hyperlink r:id="rId54" ref="C127"/>
+    <hyperlink r:id="rId55" ref="C128"/>
+    <hyperlink r:id="rId56" ref="C129"/>
+    <hyperlink r:id="rId57" ref="C130"/>
+    <hyperlink r:id="rId58" ref="C131"/>
+    <hyperlink r:id="rId59" ref="C132"/>
+    <hyperlink r:id="rId60" ref="C133"/>
+    <hyperlink r:id="rId61" ref="C134"/>
+    <hyperlink r:id="rId62" ref="C135"/>
+    <hyperlink r:id="rId63" ref="C136"/>
+    <hyperlink r:id="rId64" ref="C137"/>
+    <hyperlink r:id="rId65" ref="C138"/>
+    <hyperlink r:id="rId66" ref="C139"/>
+    <hyperlink r:id="rId67" ref="C140"/>
+    <hyperlink r:id="rId68" ref="C141"/>
+    <hyperlink r:id="rId69" ref="C142"/>
+    <hyperlink r:id="rId70" ref="C143"/>
+    <hyperlink r:id="rId71" ref="C144"/>
+    <hyperlink r:id="rId72" ref="C145"/>
+    <hyperlink r:id="rId73" ref="C146"/>
+    <hyperlink r:id="rId74" ref="C147"/>
+    <hyperlink r:id="rId75" ref="C148"/>
+    <hyperlink r:id="rId76" ref="C149"/>
+    <hyperlink r:id="rId77" location="list/1" ref="C150"/>
+    <hyperlink r:id="rId78" location="list/1" ref="C151"/>
+    <hyperlink r:id="rId79" location="list/1" ref="C152"/>
+    <hyperlink r:id="rId80" location="list/1" ref="C153"/>
+    <hyperlink r:id="rId81" ref="C154"/>
+    <hyperlink r:id="rId82" ref="C155"/>
+    <hyperlink r:id="rId83" ref="C156"/>
+    <hyperlink r:id="rId84" ref="C157"/>
+    <hyperlink r:id="rId85" ref="C158"/>
+    <hyperlink r:id="rId86" ref="C159"/>
+    <hyperlink r:id="rId87" ref="C160"/>
+    <hyperlink r:id="rId88" location="page=2" ref="C161"/>
+    <hyperlink r:id="rId89" ref="C162"/>
+    <hyperlink r:id="rId90" ref="C163"/>
+    <hyperlink r:id="rId91" ref="C164"/>
+    <hyperlink r:id="rId92" ref="C165"/>
+    <hyperlink r:id="rId93" ref="C166"/>
+    <hyperlink r:id="rId94" ref="C167"/>
+    <hyperlink r:id="rId95" ref="C168"/>
+    <hyperlink r:id="rId96" ref="C169"/>
+    <hyperlink r:id="rId97" ref="C170"/>
+    <hyperlink r:id="rId98" ref="C171"/>
+    <hyperlink r:id="rId99" ref="C172"/>
+    <hyperlink r:id="rId100" ref="C173"/>
+    <hyperlink r:id="rId101" ref="C174"/>
+    <hyperlink r:id="rId102" ref="C175"/>
+    <hyperlink r:id="rId103" ref="C176"/>
+    <hyperlink r:id="rId104" ref="C177"/>
+    <hyperlink r:id="rId105" ref="C178"/>
+    <hyperlink r:id="rId106" ref="C179"/>
+    <hyperlink r:id="rId107" ref="C180"/>
+    <hyperlink r:id="rId108" ref="C181"/>
+    <hyperlink r:id="rId109" ref="C182"/>
+    <hyperlink r:id="rId110" ref="C183"/>
+    <hyperlink r:id="rId111" ref="C184"/>
+    <hyperlink r:id="rId112" ref="C185"/>
+    <hyperlink r:id="rId113" ref="C186"/>
+    <hyperlink r:id="rId114" ref="C187"/>
+    <hyperlink r:id="rId115" ref="C188"/>
+    <hyperlink r:id="rId116" ref="C189"/>
+    <hyperlink r:id="rId117" ref="C190"/>
+    <hyperlink r:id="rId118" ref="C191"/>
+    <hyperlink r:id="rId119" ref="C192"/>
+    <hyperlink r:id="rId120" ref="C193"/>
+    <hyperlink r:id="rId121" ref="C194"/>
+    <hyperlink r:id="rId122" ref="C195"/>
+    <hyperlink r:id="rId123" ref="C196"/>
+    <hyperlink r:id="rId124" ref="C197"/>
+    <hyperlink r:id="rId125" ref="C198"/>
+    <hyperlink r:id="rId126" ref="C199"/>
+    <hyperlink r:id="rId127" ref="C200"/>
+    <hyperlink r:id="rId128" ref="C201"/>
+    <hyperlink r:id="rId129" ref="C202"/>
+    <hyperlink r:id="rId130" ref="C203"/>
+    <hyperlink r:id="rId131" ref="C204"/>
+    <hyperlink r:id="rId132" ref="C205"/>
+    <hyperlink r:id="rId133" ref="C206"/>
+    <hyperlink r:id="rId134" ref="C207"/>
+    <hyperlink r:id="rId135" ref="C208"/>
+    <hyperlink r:id="rId136" ref="C209"/>
+    <hyperlink r:id="rId137" ref="C210"/>
+    <hyperlink r:id="rId138" ref="C211"/>
+    <hyperlink r:id="rId139" ref="C212"/>
+    <hyperlink r:id="rId140" ref="C213"/>
+    <hyperlink r:id="rId141" ref="C214"/>
+    <hyperlink r:id="rId142" ref="C215"/>
+    <hyperlink r:id="rId143" ref="C216"/>
+    <hyperlink r:id="rId144" ref="C217"/>
+    <hyperlink r:id="rId145" ref="C218"/>
+    <hyperlink r:id="rId146" ref="C219"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId147"/>
 </worksheet>
 </file>